--- a/Excel/MasterShortcut.xlsx
+++ b/Excel/MasterShortcut.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_AF\DPBA_D2957\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23171F29-279B-43FD-87D9-5ECFF2C689D5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A938DBC-34AE-427C-9795-AD4432332020}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9580" windowHeight="2940" activeTab="3" xr2:uid="{C8A82902-0894-4EF7-BF84-DAE301CCD016}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9580" windowHeight="2940" activeTab="6" xr2:uid="{C8A82902-0894-4EF7-BF84-DAE301CCD016}"/>
   </bookViews>
   <sheets>
     <sheet name="Ex1" sheetId="1" r:id="rId1"/>
     <sheet name="Ex2" sheetId="2" r:id="rId2"/>
     <sheet name="Ex3" sheetId="3" r:id="rId3"/>
     <sheet name="Ex4" sheetId="4" r:id="rId4"/>
+    <sheet name="Ex5" sheetId="5" r:id="rId5"/>
+    <sheet name="Ex6" sheetId="6" r:id="rId6"/>
+    <sheet name="NamedRanges" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="180">
   <si>
     <t>Month</t>
   </si>
@@ -414,18 +417,12 @@
     <t>Gray</t>
   </si>
   <si>
-    <t>Violet</t>
-  </si>
-  <si>
     <t>Green</t>
   </si>
   <si>
     <t>Sand</t>
   </si>
   <si>
-    <t>Yellow</t>
-  </si>
-  <si>
     <t>ChoseMid</t>
   </si>
   <si>
@@ -445,12 +442,144 @@
   </si>
   <si>
     <t>Orange</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>RED</t>
+  </si>
+  <si>
+    <t>BLUE</t>
+  </si>
+  <si>
+    <t>GRAY</t>
+  </si>
+  <si>
+    <t>VIOLET</t>
+  </si>
+  <si>
+    <t>GREEN</t>
+  </si>
+  <si>
+    <t>SAND</t>
+  </si>
+  <si>
+    <t>YELLOW</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Hour</t>
+  </si>
+  <si>
+    <t>Minute</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>12:00AM</t>
+  </si>
+  <si>
+    <t>18:00AM</t>
+  </si>
+  <si>
+    <t>54:00PM</t>
+  </si>
+  <si>
+    <t>06:00AM</t>
+  </si>
+  <si>
+    <t>42:00PM</t>
+  </si>
+  <si>
+    <t>00:00AM</t>
+  </si>
+  <si>
+    <t>06:00PM</t>
+  </si>
+  <si>
+    <t>24:00AM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="hh:mm:ss\ AM/PM"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -545,7 +674,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -567,6 +696,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1603,8 +1744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A7E3B67-D1D1-4A19-8783-97E98A4E99E1}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1620,13 +1761,13 @@
         <v>117</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
@@ -1634,7 +1775,7 @@
         <v>118</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>125</v>
@@ -1648,13 +1789,13 @@
         <v>119</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
@@ -1662,7 +1803,7 @@
         <v>120</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>126</v>
@@ -1676,13 +1817,13 @@
         <v>121</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
@@ -1690,13 +1831,13 @@
         <v>122</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>126</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
@@ -1704,10 +1845,10 @@
         <v>123</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>125</v>
@@ -1718,10 +1859,10 @@
         <v>124</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>125</v>
@@ -1731,4 +1872,375 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34527972-2129-48AE-A7EE-BCE4F8D9217B}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.36328125" customWidth="1"/>
+    <col min="2" max="2" width="16.6328125" customWidth="1"/>
+    <col min="3" max="3" width="12.6328125" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="13">
+        <v>41114</v>
+      </c>
+      <c r="B2" s="8">
+        <v>2012</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="13">
+        <v>41115</v>
+      </c>
+      <c r="B3" s="8">
+        <v>2012</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="13">
+        <v>41116</v>
+      </c>
+      <c r="B4" s="8">
+        <v>2012</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="13">
+        <v>41117</v>
+      </c>
+      <c r="B5" s="8">
+        <v>2012</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="13">
+        <v>41483</v>
+      </c>
+      <c r="B6" s="8">
+        <v>2013</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="13">
+        <v>41484</v>
+      </c>
+      <c r="B7" s="8">
+        <v>2013</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="13">
+        <v>41485</v>
+      </c>
+      <c r="B8" s="8">
+        <v>2013</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="13">
+        <v>41486</v>
+      </c>
+      <c r="B9" s="8">
+        <v>2013</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="13">
+        <v>41487</v>
+      </c>
+      <c r="B10" s="8">
+        <v>2013</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="13">
+        <v>41488</v>
+      </c>
+      <c r="B11" s="8">
+        <v>2013</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D68F244A-C04B-4463-92D9-0F0AE3325918}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.08984375" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" style="9" customWidth="1"/>
+    <col min="3" max="3" width="14.6328125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="15.54296875" style="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="15">
+        <v>0.17916666666666667</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="15">
+        <v>0.78749999999999998</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="15">
+        <v>0.46250000000000002</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="15">
+        <v>0.38333333333333336</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="15">
+        <v>0.73750000000000004</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="15">
+        <v>1</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="15">
+        <v>0.96250000000000002</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="15">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="15">
+        <v>0.39166666666666666</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B181B5B9-E1FE-48D8-A4C6-7E0C0D2B1D99}">
+  <dimension ref="A2:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>